--- a/Processed Results/Mi 9T/Room Database/Room Database - Processed.xlsx
+++ b/Processed Results/Mi 9T/Room Database/Room Database - Processed.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Room Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA48928-5EE2-4352-AA4B-C8FA6121166F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB307F-FA39-467A-BE50-67F3D2DDA849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="100" windowWidth="9990" windowHeight="7360" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="360" yWindow="870" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$98:$B$187</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Blad1!$A$34:$A$63</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$33</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$34:$B$63</definedName>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -102,6 +100,12 @@
   <si>
     <t>Relative std</t>
   </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
+  </si>
 </sst>
 </file>
 
@@ -147,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2101,10 +2106,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2223,10 +2228,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7205,10 +7210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B185" activeCellId="2" sqref="B187 B186 B98:B185"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7422,7 +7427,7 @@
         <v>0.65167154506720792</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7430,23 +7435,37 @@
         <v>95.807879999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>94.234679999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>95.178600000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 95.321842) * 100) - 100</f>
+        <v>0.19081251073598082</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 95.22216) * 100) - 100</f>
+        <v>0.11946798938386394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7454,7 +7473,7 @@
         <v>95.49324</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7462,7 +7481,7 @@
         <v>95.021280000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7470,7 +7489,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7478,7 +7497,7 @@
         <v>95.021280000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +7505,7 @@
         <v>97.538399999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7494,7 +7513,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7502,7 +7521,7 @@
         <v>95.807879999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7529,7 @@
         <v>95.178600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7518,7 +7537,7 @@
         <v>95.178600000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7526,7 +7545,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7534,7 +7553,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7542,7 +7561,7 @@
         <v>95.49324</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7749,7 +7768,7 @@
         <v>0.91851766907179222</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7757,23 +7776,37 @@
         <v>96.760403999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>96.918768</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>96.285312000000005</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((E35 / 95.321842) * 100) - 100</f>
+        <v>2.356457190577558</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((E42 / 95.22216) * 100) - 100</f>
+        <v>2.2806666011357066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7781,7 +7814,7 @@
         <v>97.393860000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7789,7 +7822,7 @@
         <v>97.235495999999898</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7797,7 +7830,7 @@
         <v>97.077131999999906</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7805,7 +7838,7 @@
         <v>97.552223999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7813,7 +7846,7 @@
         <v>99.135863999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7821,7 +7854,7 @@
         <v>97.552223999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7829,7 +7862,7 @@
         <v>96.918768</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7837,7 +7870,7 @@
         <v>98.185680000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7845,7 +7878,7 @@
         <v>96.918768</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7853,7 +7886,7 @@
         <v>96.443675999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7861,7 +7894,7 @@
         <v>98.977500000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7869,7 +7902,7 @@
         <v>96.760403999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8076,7 +8109,7 @@
         <v>0.86101309276841576</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8084,23 +8117,37 @@
         <v>98.132615999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>98.927855999999906</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>98.450711999999996</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((E67 / 95.321842) * 100) - 100</f>
+        <v>3.0655173449123367</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((E74 / 95.22216) * 100) - 100</f>
+        <v>3.1400043855337856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8108,7 +8155,7 @@
         <v>97.973568</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8116,7 +8163,7 @@
         <v>97.337375999999907</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8124,7 +8171,7 @@
         <v>97.814520000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8132,7 +8179,7 @@
         <v>98.291663999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8140,7 +8187,7 @@
         <v>97.019279999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8148,7 +8195,7 @@
         <v>98.768807999999893</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8156,7 +8203,7 @@
         <v>97.178327999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8164,7 +8211,7 @@
         <v>98.132615999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8172,7 +8219,7 @@
         <v>98.291663999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8180,7 +8227,7 @@
         <v>99.086904000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8188,7 +8235,7 @@
         <v>96.224039999999903</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8196,7 +8243,7 @@
         <v>98.132615999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8324,23 +8371,37 @@
         <v>95.49324</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>95.807879999999997</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>94.234679999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f>((D19+D51+D83)/3)</f>
+        <v>1.8709290154086251</v>
+      </c>
+      <c r="G114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>1.8467129920177854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8348,7 +8409,7 @@
         <v>95.178600000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8356,7 +8417,7 @@
         <v>95.49324</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8364,7 +8425,7 @@
         <v>95.021280000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8372,7 +8433,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8380,7 +8441,7 @@
         <v>95.021280000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8388,7 +8449,7 @@
         <v>97.538399999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8396,7 +8457,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8404,7 +8465,7 @@
         <v>95.807879999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8412,7 +8473,7 @@
         <v>95.178600000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8420,7 +8481,7 @@
         <v>95.178600000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8428,7 +8489,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8436,7 +8497,7 @@
         <v>95.335919999999902</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8444,7 +8505,7 @@
         <v>95.49324</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
